--- a/Code/Results/Cases/Case_2_137/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_137/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>32.34639102509492</v>
+        <v>28.05723335959631</v>
       </c>
       <c r="C2">
-        <v>18.93259533808553</v>
+        <v>11.33315846729864</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.001937648424254</v>
+        <v>8.67634411646619</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.081268480842229</v>
+        <v>3.738699593220593</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.999652175436506</v>
+        <v>10.8291405045309</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.51988451938775</v>
+        <v>21.5310185705757</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>30.2445979188498</v>
+        <v>27.57413298666298</v>
       </c>
       <c r="C3">
-        <v>17.49771410435831</v>
+        <v>10.78810392992508</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.010290033952876</v>
+        <v>8.687263103399868</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.098335662296695</v>
+        <v>3.744152897981065</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.714846529654887</v>
+        <v>10.81529827744079</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.61419736475834</v>
+        <v>21.55699281753763</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>28.92441639547802</v>
+        <v>27.28292801486936</v>
       </c>
       <c r="C4">
-        <v>16.58175484366951</v>
+        <v>10.44315569470784</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.016713476803428</v>
+        <v>8.694446387672611</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.108923429390338</v>
+        <v>3.747666418550467</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.543759453932013</v>
+        <v>10.80926756645656</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.67944177604049</v>
+        <v>21.57477796666122</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>28.37897629687883</v>
+        <v>27.16578143664272</v>
       </c>
       <c r="C5">
-        <v>16.19933203723089</v>
+        <v>10.30021740194889</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.01963586932401</v>
+        <v>8.697494280514228</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.113273370432785</v>
+        <v>3.749139939970195</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.474989638898685</v>
+        <v>10.80743085387658</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.70773401290672</v>
+        <v>21.58248510918373</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>28.28795954697059</v>
+        <v>27.14642583914487</v>
       </c>
       <c r="C6">
-        <v>16.13526754684159</v>
+        <v>10.27634646330567</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.020138990404031</v>
+        <v>8.698007673592258</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.113998027050216</v>
+        <v>3.749387143518765</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.463628008051917</v>
+        <v>10.80716336218253</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.71253111343236</v>
+        <v>21.58379256156236</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>28.91709045490686</v>
+        <v>27.28134176542476</v>
       </c>
       <c r="C7">
-        <v>16.57663491619347</v>
+        <v>10.441237262165</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.01675168032511</v>
+        <v>8.694487003852865</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323728</v>
       </c>
       <c r="G7">
-        <v>2.108981941158572</v>
+        <v>3.74768612173236</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.542828148308679</v>
+        <v>10.80924028224189</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.67981660523761</v>
+        <v>21.57488005025242</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31.62780109591732</v>
+        <v>27.88963119174525</v>
       </c>
       <c r="C8">
-        <v>18.44485655033265</v>
+        <v>11.14747827652147</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.004535106842569</v>
+        <v>8.680009690680675</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344769</v>
       </c>
       <c r="G8">
-        <v>2.087135917101962</v>
+        <v>3.740545732683102</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.90065953602894</v>
+        <v>10.82385558089159</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.55079080831324</v>
+        <v>21.53959183847191</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>36.86836229708621</v>
+        <v>29.11844891670251</v>
       </c>
       <c r="C9">
-        <v>21.85124947536126</v>
+        <v>12.44281415377741</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>4.992011979930037</v>
+        <v>8.655411423386315</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>19.0027458068253</v>
       </c>
       <c r="G9">
-        <v>2.044729998453277</v>
+        <v>3.727844845111565</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.633510668580623</v>
+        <v>10.8720791907028</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.36340916897773</v>
+        <v>21.48507247480618</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>40.72554708544616</v>
+        <v>30.03378230139538</v>
       </c>
       <c r="C10">
-        <v>24.23089913088905</v>
+        <v>13.33101090741333</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>4.991847913612267</v>
+        <v>8.639638889705061</v>
       </c>
       <c r="F10">
-        <v>37.72874519847367</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.013120123739876</v>
+        <v>3.719294018147316</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.194532155746845</v>
+        <v>10.91937914800775</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.27826778330226</v>
+        <v>21.45411428865179</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>42.45590562708323</v>
+        <v>30.45096513170564</v>
       </c>
       <c r="C11">
-        <v>25.29648728443427</v>
+        <v>13.71987963532197</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4.994378058034632</v>
+        <v>8.63296059101193</v>
       </c>
       <c r="F11">
-        <v>39.14805722232857</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>1.998433394361031</v>
+        <v>3.715570736334104</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.456224068376967</v>
+        <v>10.9434533750155</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.25454052629066</v>
+        <v>21.44203808138864</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>43.10912028460463</v>
+        <v>30.60889921682782</v>
       </c>
       <c r="C12">
-        <v>25.69860944105355</v>
+        <v>13.86485973852505</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>4.9957841349381</v>
+        <v>8.630502950227834</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>1.992805323257299</v>
+        <v>3.714184556653624</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.556453803236355</v>
+        <v>10.9529347820973</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.2480977617862</v>
+        <v>21.43775638001252</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>42.96850186525317</v>
+        <v>30.57488969425718</v>
       </c>
       <c r="C13">
-        <v>25.61204793020246</v>
+        <v>13.83373822677926</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>4.995459989522801</v>
+        <v>8.631029078829906</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>1.994020801637187</v>
+        <v>3.714482042327583</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.534813174653856</v>
+        <v>10.95087660492222</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.24936520355404</v>
+        <v>21.43866552197869</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>42.50967702072995</v>
+        <v>30.4639602294544</v>
       </c>
       <c r="C14">
-        <v>25.32959118640989</v>
+        <v>13.73185332981651</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>4.994484263061367</v>
+        <v>8.632756971518775</v>
       </c>
       <c r="F14">
-        <v>39.19167637503958</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>1.997971849925825</v>
+        <v>3.715456219738494</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.464445918339955</v>
+        <v>10.94422611763069</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.25395701565668</v>
+        <v>21.44167996960173</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>42.22841846979842</v>
+        <v>30.39600241157134</v>
       </c>
       <c r="C15">
-        <v>25.1564319479085</v>
+        <v>13.66914697887288</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>4.993947475551161</v>
+        <v>8.633824635214273</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.000382563988605</v>
+        <v>3.716056018033122</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.42149864110441</v>
+        <v>10.94019995053293</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.25711357761162</v>
+        <v>21.44356442215556</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>40.61209148162276</v>
+        <v>30.0065207367158</v>
       </c>
       <c r="C16">
-        <v>24.16100347941057</v>
+        <v>13.30528364413457</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>4.991740797941953</v>
+        <v>8.640085315105349</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.014071959161718</v>
+        <v>3.719540677274127</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.177575961562971</v>
+        <v>10.9178570775407</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.28015134985686</v>
+        <v>21.45494411142626</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>39.61522923940234</v>
+        <v>29.76767519012554</v>
       </c>
       <c r="C17">
-        <v>23.54667416432669</v>
+        <v>13.07810620674862</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>4.991100379568376</v>
+        <v>8.644053155895511</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>2.022376919204588</v>
+        <v>3.721720913079375</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.029718717802144</v>
+        <v>10.9048036342494</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.29837576732001</v>
+        <v>21.46244110479901</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>39.03946696716358</v>
+        <v>29.63038131394408</v>
       </c>
       <c r="C18">
-        <v>23.19166067319603</v>
+        <v>12.9460157344025</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>4.99097180639157</v>
+        <v>8.646382113169818</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>2.027126391063956</v>
+        <v>3.722990613903007</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.94526945734281</v>
+        <v>10.89753652927292</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.31024292205412</v>
+        <v>21.46694190545882</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>38.84407413882157</v>
+        <v>29.58391526424555</v>
       </c>
       <c r="C19">
-        <v>23.07114482198523</v>
+        <v>12.90105072278338</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>4.990967535752413</v>
+        <v>8.647178693585346</v>
       </c>
       <c r="F19">
-        <v>36.15172494157628</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>2.02873038820845</v>
+        <v>3.723423213120024</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.916773451394775</v>
+        <v>10.89511746071597</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.31448838978895</v>
+        <v>21.46849813098201</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>39.72158525668839</v>
+        <v>29.79309320065468</v>
       </c>
       <c r="C20">
-        <v>23.61223635791593</v>
+        <v>13.10243774442563</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>4.991143268911704</v>
+        <v>8.643625934004115</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>20.2495528364879</v>
       </c>
       <c r="G20">
-        <v>2.021495815372168</v>
+        <v>3.721487201179571</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.045395631033601</v>
+        <v>10.9061682825414</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.2962898846278</v>
+        <v>21.46162348478905</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>42.64448665390803</v>
+        <v>30.4965453258165</v>
       </c>
       <c r="C21">
-        <v>25.41258385424051</v>
+        <v>13.76184183104139</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>4.994758009748222</v>
+        <v>8.632247513946234</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>21.46857628470567</v>
       </c>
       <c r="G21">
-        <v>1.996813341468302</v>
+        <v>3.715169437352853</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.485081783949605</v>
+        <v>10.94616964420813</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.25253579988668</v>
+        <v>21.44078662579298</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>44.54389325904037</v>
+        <v>30.95596665027328</v>
       </c>
       <c r="C22">
-        <v>26.58177389218688</v>
+        <v>14.17950156136102</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>4.999782386175915</v>
+        <v>8.625226508787456</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>22.22866616901555</v>
       </c>
       <c r="G22">
-        <v>1.980279574562239</v>
+        <v>3.711178731612653</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.779194202018301</v>
+        <v>10.97443889467465</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.23900369989994</v>
+        <v>21.42886770752792</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>43.53055010537993</v>
+        <v>30.71084521402932</v>
       </c>
       <c r="C23">
-        <v>25.95802328401012</v>
+        <v>13.95783240550476</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>4.996827057817075</v>
+        <v>8.628935781790259</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>21.82633154475864</v>
       </c>
       <c r="G23">
-        <v>1.989149640860076</v>
+        <v>3.713296056770576</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.621516620968702</v>
+        <v>10.9591575387378</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.24469685455244</v>
+        <v>21.43507268049632</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>39.67351006927947</v>
+        <v>29.78160163872663</v>
       </c>
       <c r="C24">
-        <v>23.5826014572792</v>
+        <v>13.09144206860621</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>4.991123137545888</v>
+        <v>8.64381893214655</v>
       </c>
       <c r="F24">
-        <v>36.85121910575585</v>
+        <v>20.22900810905294</v>
       </c>
       <c r="G24">
-        <v>2.021894239170457</v>
+        <v>3.721592811685887</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.038306381396565</v>
+        <v>10.9055505851092</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.29722861148466</v>
+        <v>21.46199253707782</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>35.41853549886748</v>
+        <v>28.78314905686672</v>
       </c>
       <c r="C25">
-        <v>20.95414684674351</v>
+        <v>12.10299315418301</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>4.993991156321604</v>
+        <v>8.661661215493389</v>
       </c>
       <c r="F25">
-        <v>33.19272459127056</v>
+        <v>18.34778573295697</v>
       </c>
       <c r="G25">
-        <v>2.056221765792633</v>
+        <v>3.731142775182205</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.431665487110816</v>
+        <v>10.85694303537831</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.4059196258518</v>
+        <v>21.49823457601995</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_137/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_137/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.05723335959631</v>
+        <v>32.3463910250949</v>
       </c>
       <c r="C2">
-        <v>11.33315846729864</v>
+        <v>18.93259533808559</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.67634411646619</v>
+        <v>5.001937648424382</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.738699593220593</v>
+        <v>2.081268480842362</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.8291405045309</v>
+        <v>7.999652175436518</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>21.5310185705757</v>
+        <v>15.5198845193878</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27.57413298666298</v>
+        <v>30.24459791884977</v>
       </c>
       <c r="C3">
-        <v>10.78810392992508</v>
+        <v>17.49771410435834</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.687263103399868</v>
+        <v>5.010290033953008</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.744152897981065</v>
+        <v>2.098335662296828</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.81529827744079</v>
+        <v>7.714846529654913</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21.55699281753763</v>
+        <v>15.61419736475838</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27.28292801486936</v>
+        <v>28.92441639547804</v>
       </c>
       <c r="C4">
-        <v>10.44315569470784</v>
+        <v>16.58175484366964</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.694446387672611</v>
+        <v>5.016713476803496</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.747666418550467</v>
+        <v>2.108923429390739</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.80926756645656</v>
+        <v>7.543759453931995</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>21.57477796666122</v>
+        <v>15.67944177604043</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>27.16578143664272</v>
+        <v>28.37897629687883</v>
       </c>
       <c r="C5">
-        <v>10.30021740194889</v>
+        <v>16.19933203723074</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.697494280514228</v>
+        <v>5.01963586932388</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.749139939970195</v>
+        <v>2.113273370432787</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.80743085387658</v>
+        <v>7.47498963889864</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21.58248510918373</v>
+        <v>15.70773401290686</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>27.14642583914487</v>
+        <v>28.28795954697062</v>
       </c>
       <c r="C6">
-        <v>10.27634646330567</v>
+        <v>16.13526754684163</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.698007673592258</v>
+        <v>5.020138990404164</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.749387143518765</v>
+        <v>2.113998027050351</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.80716336218253</v>
+        <v>7.463628008051941</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>21.58379256156236</v>
+        <v>15.71253111343246</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>27.28134176542476</v>
+        <v>28.91709045490682</v>
       </c>
       <c r="C7">
-        <v>10.441237262165</v>
+        <v>16.57663491619331</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.694487003852865</v>
+        <v>5.01675168032511</v>
       </c>
       <c r="F7">
-        <v>15.26647399323728</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.74768612173236</v>
+        <v>2.10898194115844</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.80924028224189</v>
+        <v>7.542828148308725</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>21.57488005025242</v>
+        <v>15.67981660523752</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27.88963119174525</v>
+        <v>31.62780109591722</v>
       </c>
       <c r="C8">
-        <v>11.14747827652147</v>
+        <v>18.44485655033258</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.680009690680675</v>
+        <v>5.004535106842498</v>
       </c>
       <c r="F8">
-        <v>16.53996406344769</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.740545732683102</v>
+        <v>2.087135917101827</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.82385558089159</v>
+        <v>7.900659536028956</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21.53959183847191</v>
+        <v>15.55079080831336</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.11844891670251</v>
+        <v>36.8683622970861</v>
       </c>
       <c r="C9">
-        <v>12.44281415377741</v>
+        <v>21.85124947536134</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.655411423386315</v>
+        <v>4.992011979930103</v>
       </c>
       <c r="F9">
-        <v>19.0027458068253</v>
+        <v>34.45877994148621</v>
       </c>
       <c r="G9">
-        <v>3.727844845111565</v>
+        <v>2.044729998453551</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.8720791907028</v>
+        <v>8.633510668580634</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.48507247480618</v>
+        <v>15.36340916897771</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.03378230139538</v>
+        <v>40.7255470854461</v>
       </c>
       <c r="C10">
-        <v>13.33101090741333</v>
+        <v>24.23089913088903</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.639638889705061</v>
+        <v>4.991847913612268</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847366</v>
       </c>
       <c r="G10">
-        <v>3.719294018147316</v>
+        <v>2.013120123740008</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.91937914800775</v>
+        <v>9.194532155746868</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.45411428865179</v>
+        <v>15.27826778330229</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.45096513170564</v>
+        <v>42.4559056270834</v>
       </c>
       <c r="C11">
-        <v>13.71987963532197</v>
+        <v>25.29648728443427</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.63296059101193</v>
+        <v>4.994378058034514</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.14805722232862</v>
       </c>
       <c r="G11">
-        <v>3.715570736334104</v>
+        <v>1.998433394360782</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.9434533750155</v>
+        <v>9.456224068376965</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.44203808138864</v>
+        <v>15.25454052629057</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.60889921682782</v>
+        <v>43.10912028460482</v>
       </c>
       <c r="C12">
-        <v>13.86485973852505</v>
+        <v>25.6986094410535</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.630502950227834</v>
+        <v>4.995784134938102</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>3.714184556653624</v>
+        <v>1.992805323257029</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.9529347820973</v>
+        <v>9.556453803236376</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.43775638001252</v>
+        <v>15.24809776178615</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.57488969425718</v>
+        <v>42.96850186525332</v>
       </c>
       <c r="C13">
-        <v>13.83373822677926</v>
+        <v>25.61204793020256</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.631029078829906</v>
+        <v>4.995459989522674</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.714482042327583</v>
+        <v>1.994020801637057</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.95087660492222</v>
+        <v>9.534813174653882</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.43866552197869</v>
+        <v>15.24936520355404</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.4639602294544</v>
+        <v>42.50967702073032</v>
       </c>
       <c r="C14">
-        <v>13.73185332981651</v>
+        <v>25.32959118641012</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.632756971518775</v>
+        <v>4.994484263061377</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.715456219738494</v>
+        <v>1.997971849925701</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.94422611763069</v>
+        <v>9.464445918339978</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.44167996960173</v>
+        <v>15.25395701565657</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.39600241157134</v>
+        <v>42.22841846979842</v>
       </c>
       <c r="C15">
-        <v>13.66914697887288</v>
+        <v>25.1564319479085</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.633824635214273</v>
+        <v>4.993947475551162</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>3.716056018033122</v>
+        <v>2.00038256398847</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.94019995053293</v>
+        <v>9.42149864110441</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.44356442215556</v>
+        <v>15.25711357761167</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.0065207367158</v>
+        <v>40.61209148162284</v>
       </c>
       <c r="C16">
-        <v>13.30528364413457</v>
+        <v>24.16100347941033</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.640085315105349</v>
+        <v>4.991740797941891</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>3.719540677274127</v>
+        <v>2.014071959161583</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.9178570775407</v>
+        <v>9.177575961563006</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.45494411142626</v>
+        <v>15.28015134985691</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.76767519012554</v>
+        <v>39.61522923940235</v>
       </c>
       <c r="C17">
-        <v>13.07810620674862</v>
+        <v>23.54667416432687</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.644053155895511</v>
+        <v>4.991100379568304</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.721720913079375</v>
+        <v>2.022376919204592</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.9048036342494</v>
+        <v>9.02971871780213</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.46244110479901</v>
+        <v>15.29837576732</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.63038131394408</v>
+        <v>39.0394669671636</v>
       </c>
       <c r="C18">
-        <v>12.9460157344025</v>
+        <v>23.191660673196</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.646382113169818</v>
+        <v>4.990971806391631</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>3.722990613903007</v>
+        <v>2.027126391064361</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.89753652927292</v>
+        <v>8.945269457342771</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.46694190545882</v>
+        <v>15.3102429220542</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.58391526424555</v>
+        <v>38.84407413882148</v>
       </c>
       <c r="C19">
-        <v>12.90105072278338</v>
+        <v>23.07114482198509</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.647178693585346</v>
+        <v>4.99096753575242</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>3.723423213120024</v>
+        <v>2.028730388208315</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.89511746071597</v>
+        <v>8.916773451394789</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.46849813098201</v>
+        <v>15.31448838978894</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.79309320065468</v>
+        <v>39.72158525668864</v>
       </c>
       <c r="C20">
-        <v>13.10243774442563</v>
+        <v>23.6122363579161</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.643625934004115</v>
+        <v>4.991143268911704</v>
       </c>
       <c r="F20">
-        <v>20.2495528364879</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>3.721487201179571</v>
+        <v>2.021495815372435</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.9061682825414</v>
+        <v>9.045395631033593</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>21.46162348478905</v>
+        <v>15.29628988462776</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.4965453258165</v>
+        <v>42.64448665390773</v>
       </c>
       <c r="C21">
-        <v>13.76184183104139</v>
+        <v>25.41258385424025</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.632247513946234</v>
+        <v>4.994758009748161</v>
       </c>
       <c r="F21">
-        <v>21.46857628470567</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>3.715169437352853</v>
+        <v>1.996813341468302</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.94616964420813</v>
+        <v>9.485081783949626</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.44078662579298</v>
+        <v>15.25253579988685</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.95596665027328</v>
+        <v>44.54389325904035</v>
       </c>
       <c r="C22">
-        <v>14.17950156136102</v>
+        <v>26.58177389218676</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.625226508787456</v>
+        <v>4.999782386175915</v>
       </c>
       <c r="F22">
-        <v>22.22866616901555</v>
+        <v>40.81974568026786</v>
       </c>
       <c r="G22">
-        <v>3.711178731612653</v>
+        <v>1.980279574562247</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.97443889467465</v>
+        <v>9.779194202018306</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>21.42886770752792</v>
+        <v>15.23900369989988</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.71084521402932</v>
+        <v>43.53055010537972</v>
       </c>
       <c r="C23">
-        <v>13.95783240550476</v>
+        <v>25.95802328400993</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.628935781790259</v>
+        <v>4.996827057816946</v>
       </c>
       <c r="F23">
-        <v>21.82633154475864</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>3.713296056770576</v>
+        <v>1.989149640859821</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.9591575387378</v>
+        <v>9.621516620968679</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.43507268049632</v>
+        <v>15.24469685455252</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.78160163872663</v>
+        <v>39.67351006927939</v>
       </c>
       <c r="C24">
-        <v>13.09144206860621</v>
+        <v>23.58260145727904</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.64381893214655</v>
+        <v>4.991123137545825</v>
       </c>
       <c r="F24">
-        <v>20.22900810905294</v>
+        <v>36.85121910575583</v>
       </c>
       <c r="G24">
-        <v>3.721592811685887</v>
+        <v>2.02189423917019</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.9055505851092</v>
+        <v>9.03830638139658</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>21.46199253707782</v>
+        <v>15.29722861148462</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.78314905686672</v>
+        <v>35.41853549886753</v>
       </c>
       <c r="C25">
-        <v>12.10299315418301</v>
+        <v>20.95414684674356</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.661661215493389</v>
+        <v>4.993991156321666</v>
       </c>
       <c r="F25">
-        <v>18.34778573295697</v>
+        <v>33.19272459127051</v>
       </c>
       <c r="G25">
-        <v>3.731142775182205</v>
+        <v>2.056221765792492</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.85694303537831</v>
+        <v>8.431665487110836</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.49823457601995</v>
+        <v>15.40591962585165</v>
       </c>
       <c r="O25">
         <v>0</v>
